--- a/data/trans_camb/P12B1_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_3_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,21</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,6</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,04</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,23</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,24</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 51,81</t>
+          <t>-2,24; 3,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 48,55</t>
+          <t>0,21; 8,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 36,65</t>
+          <t>-1,7; 4,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 34,73</t>
+          <t>-4,78; 3,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 38,06</t>
+          <t>-3,11; 5,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 32,49</t>
+          <t>-1,73; 8,63</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 2,3</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 5,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 5,23</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>84,41%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>72,97%</t>
+          <t>288,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>-15,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>66,49%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>91,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>65,99%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 516,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 493,65</t>
+          <t>-48,71; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 81,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 84,05</t>
+          <t>-78,81; 197,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 121,41</t>
+          <t>-55,02; 298,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 103,06</t>
+          <t>-44,92; 493,2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-67,97; 191,11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-21,06; 333,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-35,96; 339,21</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,71</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-51,82; 19,23</t>
+          <t>-4,57; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 28,6</t>
+          <t>-3,35; 5,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 24,09</t>
+          <t>-3,68; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 27,53</t>
+          <t>-5,2; 3,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,77; 10,9</t>
+          <t>-6,57; 0,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 17,05</t>
+          <t>-1,66; 25,44</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 2,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 2,41</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 13,38</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-28,99%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,21%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>-19,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,61%</t>
+          <t>-56,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>137,89%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-12,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-15,25%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>88,77%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 48,01</t>
+          <t>-81,16; 334,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 76,01</t>
+          <t>-65,52; 405,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,05; 56,29</t>
+          <t>-72,18; 436,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 66,49</t>
+          <t>-80,05; 194,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 22,94</t>
+          <t>-100,0; 137,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 38,87</t>
+          <t>-46,33; 1754,22</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-63,29; 117,67</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-66,2; 108,21</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-29,8; 550,38</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-41,81</t>
+          <t>-6,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-27,05</t>
+          <t>-13,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-51,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-47,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-36,06</t>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,49</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,65</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,59</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-88,99; 14,75</t>
+          <t>-26,81; 7,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 31,53</t>
+          <t>-33,42; -3,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-25,69; 6,61</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -13,14</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-93,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-79,45; 4,41</t>
+          <t>0,0; 12,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,3; 3,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-15,56; -1,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 4,69</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-49,04%</t>
+          <t>-51,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,72%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-59,73%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-52,58%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-51,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-54,18%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-40,88%</t>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-38,98%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-93,93; 17,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 45,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,17 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -13,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-95,52; -2,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,34; 5,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 332,03</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 23,89</t>
+          <t>-3,58; 2,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 21,38</t>
+          <t>-2,07; 4,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 21,44</t>
+          <t>-2,7; 3,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 18,98</t>
+          <t>-2,97; 1,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 12,09</t>
+          <t>-2,88; 1,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 13,34</t>
+          <t>-0,2; 11,71</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 1,45</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 2,2</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 6,1</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>-16,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>-17,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>106,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-16,98%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>54,0%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 64,83</t>
+          <t>-69,82; 109,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 57,23</t>
+          <t>-41,57; 202,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 44,05</t>
+          <t>-57,26; 151,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 37,26</t>
+          <t>-63,68; 102,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 25,62</t>
+          <t>-59,6; 93,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 28,61</t>
+          <t>-12,91; 459,98</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-53,72; 52,94</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-38,27; 85,04</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-18,41; 193,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
